--- a/tests/info/Stage Fright Project Plan.xlsx
+++ b/tests/info/Stage Fright Project Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps25skalb\Documents\tests\tests\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFB0A06-CE45-473F-956E-86507131F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8461393A-F980-4D93-BD4A-D31173A0CBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="51675" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Task  Registration 11/1  Due 1/13</t>
   </si>
@@ -81,13 +81,37 @@
     <t>Aidien</t>
   </si>
   <si>
-    <t>Create Logo, albums and merch</t>
-  </si>
-  <si>
     <t>Aidien and Sean</t>
   </si>
   <si>
     <t>Finish Home Page Layout without full design</t>
+  </si>
+  <si>
+    <t>Finish About Page</t>
+  </si>
+  <si>
+    <t>Finish Tours Page</t>
+  </si>
+  <si>
+    <t>Finish Albums Page</t>
+  </si>
+  <si>
+    <t>Finish Merch Page</t>
+  </si>
+  <si>
+    <t>Create Logo, albums, songs and merch</t>
+  </si>
+  <si>
+    <t>Finish Home Page</t>
+  </si>
+  <si>
+    <t>Create Every Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabari </t>
+  </si>
+  <si>
+    <t>Create Functioning Shopping Cart</t>
   </si>
 </sst>
 </file>
@@ -285,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -303,17 +327,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +557,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -586,18 +608,18 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -608,12 +630,12 @@
         <v>13</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -624,28 +646,28 @@
         <v>13</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -656,270 +678,293 @@
         <v>17</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="18"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="18"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="9"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="B13" s="9"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="B14" s="9"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="18"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="18"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="16"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="13"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="21"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="21"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="21"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="20"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="20"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="20"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="20"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="20"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="20"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -931,13 +976,16 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="B30" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>5</v>
@@ -945,7 +993,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>7</v>
@@ -953,7 +1001,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>9</v>
@@ -961,14 +1009,10 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/tests/info/Stage Fright Project Plan.xlsx
+++ b/tests/info/Stage Fright Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps25skalb\Documents\tests\tests\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8461393A-F980-4D93-BD4A-D31173A0CBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE6470F-1AD7-4C2B-B7E5-25B3CFBEF94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="51675" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,10 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="7.625" customWidth="1"/>
     <col min="4" max="4" width="2.625" customWidth="1"/>
-    <col min="5" max="10" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="2.625" customWidth="1"/>
     <col min="12" max="12" width="7.625" customWidth="1"/>
   </cols>
@@ -586,13 +589,13 @@
       <c r="F1" s="4">
         <v>45583</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="4">
+        <v>45604</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
-      <c r="L1" s="6">
-        <v>43845</v>
-      </c>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>

--- a/tests/info/Stage Fright Project Plan.xlsx
+++ b/tests/info/Stage Fright Project Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps25skalb\Documents\tests\tests\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PS25JHill\Documents\tests\tests\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE6470F-1AD7-4C2B-B7E5-25B3CFBEF94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302D4942-8F99-4F51-BD8A-4B0B98EE8A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="25710" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Task  Registration 11/1  Due 1/13</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Create Functioning Shopping Cart</t>
+  </si>
+  <si>
+    <t>Aidien and Jabari</t>
   </si>
 </sst>
 </file>
@@ -329,13 +332,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +560,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -618,7 +621,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="21"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -634,7 +637,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="20"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -665,8 +668,8 @@
         <v>13</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="15"/>
@@ -682,7 +685,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -698,7 +701,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -714,7 +717,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -730,7 +733,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -741,10 +744,12 @@
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -760,7 +765,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="12"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -774,7 +779,7 @@
       <c r="B13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="16"/>
@@ -849,10 +854,10 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -864,7 +869,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="19"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,7 +881,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="19"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -888,7 +893,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="19"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -900,7 +905,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="18"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,7 +917,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="18"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -924,7 +929,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="18"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -936,7 +941,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="18"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -952,7 +957,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="18"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,7 +969,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="18"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/tests/info/Stage Fright Project Plan.xlsx
+++ b/tests/info/Stage Fright Project Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PS25JHill\Documents\tests\tests\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302D4942-8F99-4F51-BD8A-4B0B98EE8A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7F2979-572D-4674-B18B-2D2165AADCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="25710" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="5400" windowWidth="25710" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +260,18 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -312,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -339,6 +351,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +575,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -571,8 +586,9 @@
     <col min="4" max="4" width="2.625" customWidth="1"/>
     <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="2.625" customWidth="1"/>
     <col min="12" max="12" width="7.625" customWidth="1"/>
   </cols>
@@ -595,7 +611,9 @@
       <c r="G1" s="4">
         <v>45604</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="4">
+        <v>45629</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
       <c r="L1" s="6"/>
@@ -622,8 +640,8 @@
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
       <c r="F3" s="20"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="7"/>
@@ -638,8 +656,8 @@
       <c r="D4" s="8"/>
       <c r="E4" s="15"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="7"/>
@@ -654,8 +672,8 @@
       <c r="D5" s="8"/>
       <c r="E5" s="12"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="7"/>
@@ -670,8 +688,8 @@
       <c r="D6" s="8"/>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="7"/>
@@ -686,8 +704,8 @@
       <c r="D7" s="8"/>
       <c r="E7" s="15"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="7"/>
@@ -702,8 +720,8 @@
       <c r="D8" s="8"/>
       <c r="E8" s="12"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="12"/>
       <c r="J8" s="16"/>
       <c r="K8" s="7"/>
@@ -717,9 +735,9 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="7"/>
@@ -733,9 +751,9 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="12"/>
       <c r="J10" s="16"/>
       <c r="K10" s="7"/>
@@ -749,9 +767,9 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="7"/>
@@ -765,9 +783,9 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="7"/>
@@ -779,9 +797,9 @@
       <c r="B13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="7"/>
@@ -795,7 +813,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="7"/>
